--- a/arquivos extras/Planilha.xlsx
+++ b/arquivos extras/Planilha.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="165">
   <si>
     <t>JAN</t>
   </si>
@@ -553,6 +553,36 @@
   </si>
   <si>
     <t>acampamento</t>
+  </si>
+  <si>
+    <t>babeiro</t>
+  </si>
+  <si>
+    <t>oferta</t>
+  </si>
+  <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>fotos de carro, Astra</t>
+  </si>
+  <si>
+    <t>padaria e armazem (trena)</t>
+  </si>
+  <si>
+    <t>supermecado brasil</t>
+  </si>
+  <si>
+    <t>fotos do volei  + banlek acumulado</t>
+  </si>
+  <si>
+    <t>fotos do volei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1613,6 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,7 +2320,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2548,40 +2579,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1443.24</c:v>
+                  <c:v>1546.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,7 +2722,7 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>814.69</c:v>
+                  <c:v>905.0200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2811,40 +2842,40 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>628.54999999999995</c:v>
+                  <c:v>641.54999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2860,11 +2891,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1516783184"/>
-        <c:axId val="1516780464"/>
+        <c:axId val="1317015104"/>
+        <c:axId val="1317010208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1516783184"/>
+        <c:axId val="1317015104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,7 +2937,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516780464"/>
+        <c:crossAx val="1317010208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2914,7 +2945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1516780464"/>
+        <c:axId val="1317010208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +2995,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1516783184"/>
+        <c:crossAx val="1317015104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4507,7 +4538,7 @@
   <dimension ref="B1:P88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:P25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4546,7 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
@@ -4523,7 +4554,10 @@
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4540,10 +4574,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -4557,7 +4591,11 @@
       </c>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>1443.24</v>
+        <v>1546.57</v>
+      </c>
+      <c r="H3" s="129">
+        <f>0.35*F3</f>
+        <v>541.29949999999997</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -4570,15 +4608,18 @@
       <c r="C4" s="7"/>
       <c r="D4" s="26">
         <f>SUM(P10:P25)</f>
-        <v>0</v>
+        <v>103.33</v>
       </c>
       <c r="F4" s="37">
         <f>SUM(F11:F32)</f>
-        <v>507.69</v>
+        <v>568.0200000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4589,7 +4630,7 @@
       <c r="D5" s="27"/>
       <c r="F5" s="98">
         <f>D4</f>
-        <v>0</v>
+        <v>103.33</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>7</v>
@@ -4603,7 +4644,7 @@
       <c r="D6" s="27"/>
       <c r="F6" s="36">
         <f>SUM(K11:K22)</f>
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="I6" s="14">
         <v>46026</v>
@@ -4615,26 +4656,26 @@
       <c r="D7" s="28"/>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="N9" s="92" t="s">
         <v>125</v>
@@ -4674,10 +4715,18 @@
       <c r="K10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="60"/>
+      <c r="M10" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="95">
+        <v>46044</v>
+      </c>
+      <c r="O10" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="60">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
@@ -4707,10 +4756,18 @@
       <c r="K11" s="60">
         <v>30</v>
       </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="61"/>
+      <c r="M11" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="96">
+        <v>46048</v>
+      </c>
+      <c r="O11" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="61">
+        <v>53.33</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
@@ -4843,26 +4900,54 @@
       <c r="P15" s="61"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="34"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="61"/>
+      <c r="B16" s="22">
+        <v>46036</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="34">
+        <v>24</v>
+      </c>
+      <c r="H16" s="19">
+        <v>46038</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="61">
+        <v>30</v>
+      </c>
       <c r="M16" s="77"/>
       <c r="N16" s="96"/>
       <c r="O16" s="87"/>
       <c r="P16" s="61"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="22">
+        <v>46040</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="34">
+        <v>10</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="13"/>
       <c r="J17" s="1"/>
@@ -4873,11 +4958,21 @@
       <c r="P17" s="61"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="22">
+        <v>46045</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="34">
+        <v>20.95</v>
+      </c>
       <c r="H18" s="19"/>
       <c r="I18" s="13"/>
       <c r="J18" s="1"/>
@@ -4888,11 +4983,21 @@
       <c r="P18" s="61"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="22">
+        <v>46047</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="34">
+        <v>5.38</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="13"/>
       <c r="J19" s="1"/>
@@ -5066,7 +5171,7 @@
       </c>
       <c r="I36" s="69">
         <f t="shared" ref="I36:I45" si="1">SUMIF($I$11:$I$22,H36,$K$11:$K$22)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -5252,14 +5357,14 @@
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="73">
         <f>SUM(D50:D56)</f>
-        <v>63</v>
+        <v>93.95</v>
       </c>
       <c r="C51" s="68" t="s">
         <v>83</v>
       </c>
       <c r="D51" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -5295,7 +5400,7 @@
       </c>
       <c r="D55" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5586,7 +5691,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3I3Sda4leSvjlsRTIJLsHjfz4x4+hi4qUvx3jiQ8exlAYMFp9Bq8WWpLtzKM+MMjC+7yFI9Ed8B/+lPEJf2cOw==" saltValue="1seHSppNhaLkNMxzCgp2Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="H9:K9"/>
@@ -5660,10 +5765,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -5673,7 +5778,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -5694,7 +5799,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5732,28 +5837,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Set!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -6699,10 +6804,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -6712,7 +6817,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -6733,7 +6838,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6771,28 +6876,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Out!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -7735,10 +7840,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7749,7 +7854,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -7771,7 +7876,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
       <c r="N4"/>
     </row>
@@ -7812,11 +7917,11 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Nov!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="N7"/>
     </row>
@@ -7824,19 +7929,19 @@
       <c r="N8"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -8893,55 +8998,55 @@
       </c>
       <c r="C3" s="42">
         <f>Jan!$F$3</f>
-        <v>1443.24</v>
+        <v>1546.57</v>
       </c>
       <c r="D3" s="41">
         <f>Fev!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="E3" s="41">
         <f>Mar!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F3" s="41">
         <f>Abr!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="G3" s="41">
         <f>Mai!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="H3" s="41">
         <f>Jun!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="41">
         <f>Jul!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="J3" s="41">
         <f>Ago!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="K3" s="41">
         <f>Set!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="L3" s="41">
         <f>Out!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="M3" s="41">
         <f>Nov!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="N3" s="103">
         <f>Dez!$F$3</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="O3" s="103">
         <f>SUM(C3:N3)</f>
-        <v>8357.2900000000009</v>
+        <v>8603.6200000000008</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -8950,7 +9055,7 @@
       </c>
       <c r="C4" s="43">
         <f>Jan!$F$4</f>
-        <v>507.69</v>
+        <v>568.0200000000001</v>
       </c>
       <c r="D4" s="43">
         <f>Fev!$F$4</f>
@@ -8998,7 +9103,7 @@
       </c>
       <c r="O4" s="104">
         <f t="shared" ref="O4:O8" si="0">SUM(C4:N4)</f>
-        <v>507.69</v>
+        <v>568.0200000000001</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -9007,7 +9112,7 @@
       </c>
       <c r="C5" s="44">
         <f>Jan!$F$6</f>
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D5" s="44">
         <f>Fev!$F$6</f>
@@ -9055,7 +9160,7 @@
       </c>
       <c r="O5" s="105">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -9064,7 +9169,7 @@
       </c>
       <c r="C6" s="45">
         <f>C4+C5</f>
-        <v>814.69</v>
+        <v>905.0200000000001</v>
       </c>
       <c r="D6" s="45">
         <f t="shared" ref="D6:N6" si="1">D4+D5</f>
@@ -9112,7 +9217,7 @@
       </c>
       <c r="O6" s="106">
         <f t="shared" si="0"/>
-        <v>814.69</v>
+        <v>905.0200000000001</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -9121,55 +9226,55 @@
       </c>
       <c r="C7" s="102">
         <f>C3-C6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="D7" s="102">
         <f t="shared" ref="D7:N7" si="2">D3-D6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="E7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="G7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="H7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="J7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="K7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="L7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="M7" s="102">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="N7" s="107">
         <f t="shared" si="2"/>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="O7" s="107">
         <f t="shared" si="0"/>
-        <v>7542.6000000000013</v>
+        <v>7698.5999999999995</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9178,7 +9283,7 @@
       </c>
       <c r="C8" s="100">
         <f>Jan!D4</f>
-        <v>0</v>
+        <v>103.33</v>
       </c>
       <c r="D8" s="100">
         <f>Fev!D4</f>
@@ -9226,7 +9331,7 @@
       </c>
       <c r="O8" s="101">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103.33</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9396,7 +9501,7 @@
       </c>
       <c r="C16" s="114">
         <f>Jan!$B$51</f>
-        <v>63</v>
+        <v>93.95</v>
       </c>
       <c r="D16" s="115">
         <f>Fev!B51</f>
@@ -9444,7 +9549,7 @@
       </c>
       <c r="O16" s="122">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>93.95</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -9724,7 +9829,7 @@
       </c>
       <c r="G26" s="69">
         <f>SUBTOTAL(9,Jan!I36,Fev!I36,Mar!I36,Abr!I36,Mai!I36,Jun!I36,Jul!I36,Ago!I36,Set!I36,Out!I36,Nov!I36,Dez!I36)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -10451,19 +10556,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="N9" s="54"/>
       <c r="P9" s="57" t="s">
         <v>79</v>
@@ -11458,10 +11563,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -11471,7 +11576,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -11492,7 +11597,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11530,28 +11635,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jan!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -12489,10 +12594,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -12502,7 +12607,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -12523,7 +12628,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12561,28 +12666,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Fev!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -13520,10 +13625,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -13533,7 +13638,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -13554,7 +13659,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13592,28 +13697,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mar!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -14551,10 +14656,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -14564,7 +14669,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -14585,7 +14690,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14623,28 +14728,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Abr!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -15582,10 +15687,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -15595,7 +15700,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -15616,7 +15721,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15654,28 +15759,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Mai!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -16613,10 +16718,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -16626,7 +16731,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -16647,7 +16752,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16685,28 +16790,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jun!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -17669,10 +17774,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -17682,7 +17787,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -17705,7 +17810,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17743,28 +17848,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Jul!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
@@ -18798,10 +18903,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -18811,7 +18916,7 @@
       <c r="D3" s="30"/>
       <c r="F3" s="38">
         <f>SUM(D3,D5,D6,D7,D4)</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
@@ -18832,7 +18937,7 @@
       </c>
       <c r="I4" s="15">
         <f ca="1">TODAY()</f>
-        <v>46035</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18870,28 +18975,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="28">
         <f>Ago!F7</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
       <c r="F7" s="39">
         <f>F3-F4-F6</f>
-        <v>628.54999999999995</v>
+        <v>641.54999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="H9" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="M9" s="91" t="s">
         <v>124</v>
       </c>
